--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_212.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,658 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1291666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D/b7', 'C', 'G', 'D']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(24.224784, 30.749591)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(52.193219, 58.683197)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.42, 20.16)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.732085, 40.296348)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3319148936170213</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03806850084222347</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
+          <t>[['G', 'A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:06.640000', '0:01:14.100000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:44.180000', '0:00:49.060000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1060924369747899</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>[['A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.62, 21.66)]</t>
+          <t>[['D', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.997, 42.131)]</t>
+          <t>[('0:01:28.583470', '0:01:33.575761')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.230000', '0:00:03.500000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1047619047619048</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['G:min7', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:01:00.860000', '0:01:07.913000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.530000', '0:00:17.430000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07857142857142857</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_93</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05662285136501517</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min/5', 'C:min'], ['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['F:maj/9', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.62, 11.12), (12.28, 17.3)]</t>
+          <t>[['C:maj', 'G/3', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.357, 22.981), (7.523, 10.397)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:20.323832', '0:00:24.050634')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:40.171000', '0:00:43.498000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_125</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09782608695652173</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.04, 18.72), (6.56, 12.6)]</t>
+          <t>[['A:min', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (225.32, 227.9)]</t>
+          <t>[('0:00:09.640000', '0:00:11.780000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:16.299013', '0:01:18.748718')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2863636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.84, 19.46)]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.06, 15.62), (16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2276422764227642</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.939, 5.544)]</t>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(124.737522, 131.471309)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.8, 76.72)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5483870967741935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06), (81.42, 90.04)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36), (7.4, 12.02)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6']]</t>
-        </is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8787878787878788</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'E/5', 'E']]</t>
+          <t>[['E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.440395, 2.746326)]</t>
+          <t>[['G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
+          <t>[('0:00:19.977483', '0:01:57.814762')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:01:31.957392', '0:02:08.958390')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.2, 12.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
